--- a/PLANTILLAS XLSX/receta.xlsx
+++ b/PLANTILLAS XLSX/receta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\Desarrollar juegos-apps\Programas python\Resetario V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\Desarrollar juegos-apps\Programas python\Resetario V2\PLANTILLAS XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9CBD71-7F54-4E3A-B139-82784AE7297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57FD856-2520-4EDC-BC0E-C61E73A4A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,143 +46,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,80 +58,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +455,7 @@
   <dimension ref="A1:BZ68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:AP4"/>
+      <selection activeCell="O21" sqref="O21:AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,58 +714,58 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
@@ -1073,47 +878,47 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
       <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
@@ -1163,37 +968,37 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
@@ -1233,47 +1038,47 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
@@ -1323,37 +1128,37 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
@@ -1393,47 +1198,47 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
       <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
@@ -1483,37 +1288,37 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
       <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
@@ -1553,47 +1358,47 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
@@ -1643,37 +1448,37 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -1723,37 +1528,37 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -2027,20 +1832,20 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2260,44 +2065,44 @@
       <c r="BZ20" s="1"/>
     </row>
     <row r="21" spans="1:78" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
       <c r="AM21" s="6"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
@@ -2340,45 +2145,45 @@
       <c r="BZ21" s="1"/>
     </row>
     <row r="22" spans="1:78" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="21"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
@@ -2420,45 +2225,45 @@
       <c r="BZ22" s="1"/>
     </row>
     <row r="23" spans="1:78" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="24"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -2500,45 +2305,45 @@
       <c r="BZ23" s="1"/>
     </row>
     <row r="24" spans="1:78" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="24"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
@@ -2580,45 +2385,45 @@
       <c r="BZ24" s="1"/>
     </row>
     <row r="25" spans="1:78" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="24"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
@@ -2660,45 +2465,45 @@
       <c r="BZ25" s="1"/>
     </row>
     <row r="26" spans="1:78" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="27"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
@@ -2740,37 +2545,37 @@
       <c r="BZ26" s="1"/>
     </row>
     <row r="27" spans="1:78" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="10"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
@@ -2820,45 +2625,45 @@
       <c r="BZ27" s="1"/>
     </row>
     <row r="28" spans="1:78" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="10"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
@@ -2900,45 +2705,45 @@
       <c r="BZ28" s="1"/>
     </row>
     <row r="29" spans="1:78" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="13"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
@@ -2980,45 +2785,45 @@
       <c r="BZ29" s="1"/>
     </row>
     <row r="30" spans="1:78" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="16"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
@@ -3149,64 +2954,64 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="4"/>
-      <c r="BK32" s="5"/>
-      <c r="BL32" s="5"/>
-      <c r="BM32" s="5"/>
-      <c r="BN32" s="5"/>
-      <c r="BO32" s="6"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+      <c r="BO32" s="3"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
@@ -3483,36 +3288,36 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="17"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
-      <c r="AT36" s="17"/>
-      <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
-      <c r="AW36" s="17"/>
-      <c r="AX36" s="17"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-      <c r="BA36" s="17"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
@@ -3563,36 +3368,36 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="17"/>
-      <c r="AZ37" s="17"/>
-      <c r="BA37" s="17"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
       <c r="BB37" s="3"/>
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
@@ -3643,36 +3448,36 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
       <c r="BD38" s="3"/>
@@ -3723,36 +3528,36 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-      <c r="AN39" s="17"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="17"/>
-      <c r="AQ39" s="17"/>
-      <c r="AR39" s="17"/>
-      <c r="AS39" s="17"/>
-      <c r="AT39" s="17"/>
-      <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
-      <c r="AW39" s="17"/>
-      <c r="AX39" s="17"/>
-      <c r="AY39" s="17"/>
-      <c r="AZ39" s="17"/>
-      <c r="BA39" s="17"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="3"/>
@@ -3803,36 +3608,36 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="17"/>
-      <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
-      <c r="AW40" s="17"/>
-      <c r="AX40" s="17"/>
-      <c r="AY40" s="17"/>
-      <c r="AZ40" s="17"/>
-      <c r="BA40" s="17"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
       <c r="BD40" s="3"/>
@@ -3883,36 +3688,36 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="17"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="17"/>
-      <c r="AY41" s="17"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
       <c r="BD41" s="3"/>
@@ -3963,36 +3768,36 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-      <c r="AN42" s="17"/>
-      <c r="AO42" s="17"/>
-      <c r="AP42" s="17"/>
-      <c r="AQ42" s="17"/>
-      <c r="AR42" s="17"/>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="17"/>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
-      <c r="AW42" s="17"/>
-      <c r="AX42" s="17"/>
-      <c r="AY42" s="17"/>
-      <c r="AZ42" s="17"/>
-      <c r="BA42" s="17"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
       <c r="BD42" s="3"/>
@@ -4043,36 +3848,36 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="17"/>
-      <c r="AR43" s="17"/>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="17"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
-      <c r="AW43" s="17"/>
-      <c r="AX43" s="17"/>
-      <c r="AY43" s="17"/>
-      <c r="AZ43" s="17"/>
-      <c r="BA43" s="17"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
       <c r="BD43" s="3"/>
@@ -4123,36 +3928,36 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
-      <c r="AJ44" s="17"/>
-      <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-      <c r="AN44" s="17"/>
-      <c r="AO44" s="17"/>
-      <c r="AP44" s="17"/>
-      <c r="AQ44" s="17"/>
-      <c r="AR44" s="17"/>
-      <c r="AS44" s="17"/>
-      <c r="AT44" s="17"/>
-      <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
-      <c r="AW44" s="17"/>
-      <c r="AX44" s="17"/>
-      <c r="AY44" s="17"/>
-      <c r="AZ44" s="17"/>
-      <c r="BA44" s="17"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
       <c r="BD44" s="3"/>
@@ -4203,36 +4008,36 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-      <c r="AN45" s="17"/>
-      <c r="AO45" s="17"/>
-      <c r="AP45" s="17"/>
-      <c r="AQ45" s="17"/>
-      <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
-      <c r="AT45" s="17"/>
-      <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="17"/>
-      <c r="AY45" s="17"/>
-      <c r="AZ45" s="17"/>
-      <c r="BA45" s="17"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
@@ -4267,22 +4072,22 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
@@ -4434,45 +4239,45 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
@@ -4503,56 +4308,56 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
-      <c r="AH49" s="17"/>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
-      <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="17"/>
-      <c r="AQ49" s="17"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="17"/>
-      <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="17"/>
-      <c r="AY49" s="17"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
       <c r="BD49" s="3"/>
@@ -4583,56 +4388,56 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="17"/>
-      <c r="AO50" s="17"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="17"/>
-      <c r="AR50" s="17"/>
-      <c r="AS50" s="17"/>
-      <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
-      <c r="AW50" s="17"/>
-      <c r="AX50" s="17"/>
-      <c r="AY50" s="17"/>
-      <c r="AZ50" s="17"/>
-      <c r="BA50" s="17"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
       <c r="BD50" s="3"/>
@@ -4663,56 +4468,56 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17"/>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17"/>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17"/>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
       <c r="BD51" s="3"/>
@@ -4743,56 +4548,56 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
       <c r="BD52" s="3"/>
@@ -4823,56 +4628,56 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-      <c r="AN53" s="17"/>
-      <c r="AO53" s="17"/>
-      <c r="AP53" s="17"/>
-      <c r="AQ53" s="17"/>
-      <c r="AR53" s="17"/>
-      <c r="AS53" s="17"/>
-      <c r="AT53" s="17"/>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
-      <c r="AW53" s="17"/>
-      <c r="AX53" s="17"/>
-      <c r="AY53" s="17"/>
-      <c r="AZ53" s="17"/>
-      <c r="BA53" s="17"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
       <c r="BB53" s="3"/>
       <c r="BC53" s="3"/>
       <c r="BD53" s="3"/>
@@ -5011,17 +4816,17 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="6"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
@@ -6101,6 +5906,7 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="Q34:W34"/>
     <mergeCell ref="A47:BA47"/>
     <mergeCell ref="A48:N48"/>
     <mergeCell ref="O48:BA48"/>
@@ -6111,27 +5917,46 @@
     <mergeCell ref="AF56:BO56"/>
     <mergeCell ref="AQ55:BO55"/>
     <mergeCell ref="AF55:AP55"/>
+    <mergeCell ref="BB34:BO53"/>
+    <mergeCell ref="A17:BO17"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="A41:W41"/>
     <mergeCell ref="Q42:W45"/>
     <mergeCell ref="X34:BA35"/>
     <mergeCell ref="X36:BA45"/>
     <mergeCell ref="G40:M40"/>
     <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="G44:P44"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A39:W39"/>
     <mergeCell ref="X6:BB7"/>
     <mergeCell ref="X8:BB14"/>
     <mergeCell ref="A22:C30"/>
     <mergeCell ref="D22:AM26"/>
     <mergeCell ref="D27:AE30"/>
     <mergeCell ref="AF28:AM30"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="A19:BO19"/>
+    <mergeCell ref="A20:BO20"/>
+    <mergeCell ref="P16:BB16"/>
+    <mergeCell ref="P14:W14"/>
+    <mergeCell ref="A15:BB15"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:U18"/>
+    <mergeCell ref="V18:BO18"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:W8"/>
     <mergeCell ref="H46:W46"/>
     <mergeCell ref="X46:BA46"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="N40:W40"/>
     <mergeCell ref="A35:W35"/>
-    <mergeCell ref="BB34:BO53"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="G36:M36"/>
     <mergeCell ref="N36:P36"/>
@@ -6141,38 +5966,6 @@
     <mergeCell ref="G38:M38"/>
     <mergeCell ref="N38:P38"/>
     <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A39:W39"/>
-    <mergeCell ref="G44:P44"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A19:BO19"/>
-    <mergeCell ref="A20:BO20"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="P16:BB16"/>
-    <mergeCell ref="P14:W14"/>
-    <mergeCell ref="A15:BB15"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H18:U18"/>
-    <mergeCell ref="V18:BO18"/>
-    <mergeCell ref="A17:BO17"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="A9:W9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:K14"/>
     <mergeCell ref="A1:BO3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="BJ4:BO4"/>
@@ -6185,12 +5978,26 @@
     <mergeCell ref="A5:BO5"/>
     <mergeCell ref="J4:AP4"/>
     <mergeCell ref="AQ4:BA4"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="A9:W9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="G10:M10"/>
     <mergeCell ref="BB4:BI4"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="G16:O16"/>
     <mergeCell ref="AN21:BO30"/>
     <mergeCell ref="AF27:AM27"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="O21:AM21"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:M8"/>
     <mergeCell ref="A31:BO31"/>
     <mergeCell ref="A33:BO33"/>
     <mergeCell ref="BJ32:BO32"/>
@@ -6198,8 +6005,6 @@
     <mergeCell ref="J32:AP32"/>
     <mergeCell ref="BB32:BI32"/>
     <mergeCell ref="AQ32:BA32"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="O21:AM21"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
